--- a/lab1/report/inc/img/time_dl.xlsx
+++ b/lab1/report/inc/img/time_dl.xlsx
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0015625</v>
+        <v>0.001041666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -447,10 +447,10 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0.00625</v>
+        <v>0.004166666666666667</v>
       </c>
       <c r="D5">
-        <v>0.0046875</v>
+        <v>0.005208333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -461,10 +461,10 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0.15</v>
+        <v>0.1479166666666667</v>
       </c>
       <c r="D6">
-        <v>0.1515625</v>
+        <v>0.1552083333333333</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -475,10 +475,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>4.48125</v>
+        <v>4.383333333333334</v>
       </c>
       <c r="D7">
-        <v>4.228125</v>
+        <v>4.866666666666666</v>
       </c>
     </row>
   </sheetData>
